--- a/questions/Assignment6-ClientCommandTableForA7.xlsx
+++ b/questions/Assignment6-ClientCommandTableForA7.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salon\SimplicityStudio\v5_workspace\ecen5823-assignment6-saloni1307\questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salon\SimplicityStudio\v5_workspace\ecen5823-assignment7-saloni1307\questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63785DEA-4F7D-4CB2-A606-00EB6CC3C0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9D5C39-6CFA-4810-B3D1-1E7E7CC4D8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{653BC87A-6298-4E11-8DDE-3721DF708EBE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>Use this table to help you design your program. Add rows as needed.</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>State Machine Bubble Diagram for A7</t>
+  </si>
+  <si>
+    <t>only client</t>
+  </si>
+  <si>
+    <t>server</t>
   </si>
 </sst>
 </file>
@@ -301,9 +307,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
@@ -311,6 +314,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -685,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8F2509-5A7A-45D1-BD8D-1B77004918E9}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -700,14 +706,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -734,20 +740,20 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -777,7 +783,9 @@
       <c r="A7" s="11"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
+      <c r="D7" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="E7" s="13" t="s">
         <v>12</v>
       </c>
@@ -787,7 +795,9 @@
       <c r="A8" s="11"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
+      <c r="D8" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="E8" s="13" t="s">
         <v>13</v>
       </c>
@@ -797,7 +807,9 @@
       <c r="A9" s="11"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
+      <c r="D9" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="E9" s="13" t="s">
         <v>14</v>
       </c>
@@ -807,7 +819,9 @@
       <c r="A10" s="11"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="E10" s="13" t="s">
         <v>15</v>
       </c>
@@ -817,7 +831,9 @@
       <c r="A11" s="11"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
+      <c r="D11" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="E11" s="13" t="s">
         <v>16</v>
       </c>
@@ -829,7 +845,9 @@
       <c r="A12" s="11"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="E12" s="13" t="s">
         <v>18</v>
       </c>
@@ -839,7 +857,9 @@
       <c r="A13" s="11"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
+      <c r="D13" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="E13" s="13" t="s">
         <v>19</v>
       </c>
@@ -849,7 +869,9 @@
       <c r="A14" s="11"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
+      <c r="D14" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="E14" s="13" t="s">
         <v>20</v>
       </c>

--- a/questions/Assignment6-ClientCommandTableForA7.xlsx
+++ b/questions/Assignment6-ClientCommandTableForA7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mich1576\SimplicityStudio\v5_workspace\ecen5823-assignment6-Mich2899\questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mich1576\SimplicityStudio\v5_workspace\ecen5823-assignment7-Mich2899\questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED6460F-399E-42BB-9F3F-BB57721E5F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6BCEA6-1C7E-44D7-B614-1051FF2EC447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -598,22 +598,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1071563</xdr:colOff>
+      <xdr:colOff>349250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1166813</xdr:rowOff>
+      <xdr:rowOff>555625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>746325</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>64393</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>471488</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>91173</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E66905-1317-42DD-B9CB-04AD3BCE66E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E44FBC00-6E74-48A5-AB34-6022CC524736}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -629,8 +629,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17597438" y="1500188"/>
-          <a:ext cx="11104762" cy="5565080"/>
+          <a:off x="16859250" y="904875"/>
+          <a:ext cx="12695238" cy="7219048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1723,7 +1723,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/questions/Assignment6-ClientCommandTableForA7.xlsx
+++ b/questions/Assignment6-ClientCommandTableForA7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mich1576\SimplicityStudio\v5_workspace\ecen5823-assignment7-Mich2899\questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6BCEA6-1C7E-44D7-B614-1051FF2EC447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345A4FA0-B17F-4AA7-8737-91043DF2B34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -598,22 +598,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
+      <xdr:colOff>539750</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>555625</xdr:rowOff>
+      <xdr:rowOff>650875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>471488</xdr:colOff>
+      <xdr:colOff>642940</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>91173</xdr:rowOff>
+      <xdr:rowOff>138803</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E44FBC00-6E74-48A5-AB34-6022CC524736}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4C927A-23C4-4C7B-9285-F8819570FDE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -629,8 +629,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16859250" y="904875"/>
-          <a:ext cx="12695238" cy="7219048"/>
+          <a:off x="17049750" y="1000125"/>
+          <a:ext cx="12676190" cy="7171428"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1723,7 +1723,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
